--- a/KeyWordAppTest/data/register.xlsx
+++ b/KeyWordAppTest/data/register.xlsx
@@ -784,8 +784,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -833,14 +833,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="11.25" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="17.25" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="16.625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="62.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="22.5" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="9.625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="62.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/KeyWordAppTest/data/register.xlsx
+++ b/KeyWordAppTest/data/register.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
   <si>
     <t>testCaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xiaoming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,6 +393,14 @@
   </si>
   <si>
     <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H2:H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,7 +994,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1016,7 +1020,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1042,7 +1046,7 @@
         <v>67</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1068,7 +1072,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1094,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1120,7 +1124,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1143,7 +1147,7 @@
         <v>69</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1221,7 +1225,7 @@
         <v>88</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1247,13 +1251,13 @@
         <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1273,13 +1277,13 @@
         <v>88</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>88</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
